--- a/docs/prefetch-slot.xlsx
+++ b/docs/prefetch-slot.xlsx
@@ -2319,7 +2319,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>130</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>49</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>39</v>
@@ -2425,7 +2425,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
         <v>134</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>49</v>
       </c>
       <c r="G17" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H17" t="s" s="2">
         <v>39</v>
@@ -2531,7 +2531,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
         <v>141</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>49</v>
       </c>
       <c r="G18" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H18" t="s" s="2">
         <v>39</v>
@@ -2637,7 +2637,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
         <v>147</v>
       </c>
@@ -2653,7 +2653,7 @@
         <v>49</v>
       </c>
       <c r="G19" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H19" t="s" s="2">
         <v>39</v>

--- a/docs/prefetch-slot.xlsx
+++ b/docs/prefetch-slot.xlsx
@@ -171,7 +171,7 @@
     <t>Y</t>
   </si>
   <si>
-    <t xml:space="preserve">id
+    <t xml:space="preserve">id {[]} {[]}
 </t>
   </si>
   <si>
@@ -190,7 +190,7 @@
     <t>Slot.meta</t>
   </si>
   <si>
-    <t xml:space="preserve">Meta
+    <t xml:space="preserve">Meta {[]} {[]}
 </t>
   </si>
   <si>
@@ -206,7 +206,7 @@
     <t>Slot.implicitRules</t>
   </si>
   <si>
-    <t xml:space="preserve">uri
+    <t xml:space="preserve">uri {[]} {[]}
 </t>
   </si>
   <si>
@@ -226,7 +226,7 @@
     <t>Slot.language</t>
   </si>
   <si>
-    <t xml:space="preserve">code
+    <t xml:space="preserve">code {[]} {[]}
 </t>
   </si>
   <si>
@@ -258,7 +258,7 @@
 htmlxhtmldisplay</t>
   </si>
   <si>
-    <t xml:space="preserve">Narrative
+    <t xml:space="preserve">Narrative {[]} {[]}
 </t>
   </si>
   <si>
@@ -288,7 +288,7 @@
 anonymous resourcescontained resources</t>
   </si>
   <si>
-    <t xml:space="preserve">Resource
+    <t xml:space="preserve">Resource {[]} {[]}
 </t>
   </si>
   <si>
@@ -314,7 +314,7 @@
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension
+    <t xml:space="preserve">Extension {[]} {[]}
 </t>
   </si>
   <si>
@@ -345,7 +345,7 @@
     <t>Slot.identifier</t>
   </si>
   <si>
-    <t xml:space="preserve">Identifier
+    <t xml:space="preserve">Identifier {[]} {[]}
 </t>
   </si>
   <si>
@@ -361,7 +361,7 @@
     <t>Slot.serviceCategory</t>
   </si>
   <si>
-    <t xml:space="preserve">CodeableConcept
+    <t xml:space="preserve">CodeableConcept {[]} {[]}
 </t>
   </si>
   <si>
@@ -425,7 +425,7 @@
     <t>Slot.schedule</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference {http://hl7.org/fhir/StructureDefinition/Schedule}
+    <t xml:space="preserve">Reference {[]} {[CanonicalType[http://hl7.org/fhir/StructureDefinition/Schedule]]}
 </t>
   </si>
   <si>
@@ -459,7 +459,7 @@
     <t>Slot.start</t>
   </si>
   <si>
-    <t xml:space="preserve">instant
+    <t xml:space="preserve">instant {[]} {[]}
 </t>
   </si>
   <si>
@@ -490,7 +490,7 @@
     <t>Slot.overbooked</t>
   </si>
   <si>
-    <t xml:space="preserve">boolean
+    <t xml:space="preserve">boolean {[]} {[]}
 </t>
   </si>
   <si>
@@ -506,7 +506,7 @@
     <t>Slot.comment</t>
   </si>
   <si>
-    <t xml:space="preserve">string
+    <t xml:space="preserve">string {[]} {[]}
 </t>
   </si>
   <si>

--- a/docs/prefetch-slot.xlsx
+++ b/docs/prefetch-slot.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="162">
   <si>
     <t>Path</t>
   </si>
@@ -310,33 +310,40 @@
     <t>Slot.extension</t>
   </si>
   <si>
+    <t xml:space="preserve">Extension {[]} {[]}
+</t>
+  </si>
+  <si>
+    <t>Extension</t>
+  </si>
+  <si>
+    <t>An Extension</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>DomainResource.extension</t>
+  </si>
+  <si>
+    <t>Slot.modifierExtension</t>
+  </si>
+  <si>
     <t>extensions
 user content</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {[]} {[]}
-</t>
-  </si>
-  <si>
-    <t>Additional Content defined by implementations</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+    <t>Extensions that cannot be ignored</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
   </si>
   <si>
     <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
-  </si>
-  <si>
-    <t>DomainResource.extension</t>
-  </si>
-  <si>
-    <t>Slot.modifierExtension</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -1585,7 +1592,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>94</v>
+        <v>39</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -1604,17 +1611,15 @@
         <v>39</v>
       </c>
       <c r="J9" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s" s="2">
         <v>95</v>
       </c>
-      <c r="K9" t="s" s="2">
+      <c r="L9" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="L9" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>98</v>
-      </c>
+      <c r="M9" s="2"/>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>39</v>
@@ -1651,16 +1656,14 @@
         <v>39</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB9" t="s" s="2">
-        <v>39</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="AB9" s="2"/>
       <c r="AC9" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>39</v>
+        <v>98</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>99</v>
@@ -1678,7 +1681,7 @@
         <v>39</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>92</v>
+        <v>39</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>39</v>
@@ -1693,7 +1696,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>94</v>
+        <v>101</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -1712,16 +1715,16 @@
         <v>39</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="K10" t="s" s="2">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="L10" t="s" s="2">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="M10" t="s" s="2">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -1771,7 +1774,7 @@
         <v>39</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>40</v>
@@ -1797,7 +1800,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1820,13 +1823,13 @@
         <v>50</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="L11" t="s" s="2">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1877,7 +1880,7 @@
         <v>39</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>40</v>
@@ -1898,12 +1901,12 @@
         <v>39</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1926,13 +1929,13 @@
         <v>50</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="L12" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1959,11 +1962,11 @@
         <v>39</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>39</v>
@@ -1981,7 +1984,7 @@
         <v>39</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>40</v>
@@ -2002,12 +2005,12 @@
         <v>39</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2030,13 +2033,13 @@
         <v>50</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2067,7 +2070,7 @@
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>39</v>
@@ -2085,7 +2088,7 @@
         <v>39</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>40</v>
@@ -2106,12 +2109,12 @@
         <v>39</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2134,13 +2137,13 @@
         <v>50</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2167,13 +2170,13 @@
         <v>39</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="X14" t="s" s="2">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="Y14" t="s" s="2">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>39</v>
@@ -2191,7 +2194,7 @@
         <v>39</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>40</v>
@@ -2212,12 +2215,12 @@
         <v>39</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2240,13 +2243,13 @@
         <v>50</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2273,11 +2276,11 @@
         <v>39</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>39</v>
@@ -2295,7 +2298,7 @@
         <v>39</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>40</v>
@@ -2316,12 +2319,12 @@
         <v>39</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2344,13 +2347,13 @@
         <v>50</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2401,7 +2404,7 @@
         <v>39</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>49</v>
@@ -2427,7 +2430,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2453,10 +2456,10 @@
         <v>68</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2483,13 +2486,13 @@
         <v>39</v>
       </c>
       <c r="W17" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="Z17" t="s" s="2">
         <v>39</v>
@@ -2507,7 +2510,7 @@
         <v>39</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>49</v>
@@ -2525,7 +2528,7 @@
         <v>39</v>
       </c>
       <c r="AK17" t="s" s="2">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>39</v>
@@ -2533,7 +2536,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2556,13 +2559,13 @@
         <v>50</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2613,7 +2616,7 @@
         <v>39</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>49</v>
@@ -2631,15 +2634,15 @@
         <v>39</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2662,13 +2665,13 @@
         <v>50</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2719,7 +2722,7 @@
         <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>49</v>
@@ -2737,15 +2740,15 @@
         <v>39</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2768,13 +2771,13 @@
         <v>39</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2782,7 +2785,7 @@
         <v>39</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Q20" t="s" s="2">
         <v>39</v>
@@ -2827,7 +2830,7 @@
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
@@ -2851,9 +2854,9 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" hidden="true">
+    <row r="21">
       <c r="A21" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2867,7 +2870,7 @@
         <v>49</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>39</v>
+        <v>50</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>39</v>
@@ -2876,13 +2879,13 @@
         <v>39</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>158</v>
+        <v>160</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>159</v>
+        <v>161</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2933,7 +2936,7 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>

--- a/docs/prefetch-slot.xlsx
+++ b/docs/prefetch-slot.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="701" uniqueCount="162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="160">
   <si>
     <t>Path</t>
   </si>
@@ -310,21 +310,21 @@
     <t>Slot.extension</t>
   </si>
   <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
     <t xml:space="preserve">Extension {[]} {[]}
 </t>
   </si>
   <si>
-    <t>Extension</t>
-  </si>
-  <si>
-    <t>An Extension</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>open</t>
+    <t>Additional Content defined by implementations</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the resource. In order to make the use of extensions safe and manageable, there is a strict set of governance  applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension.</t>
+  </si>
+  <si>
+    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.extension</t>
@@ -333,17 +333,10 @@
     <t>Slot.modifierExtension</t>
   </si>
   <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
     <t>Extensions that cannot be ignored</t>
   </si>
   <si>
     <t>May be used to represent additional information that is not part of the basic definition of the resource, and that modifies the understanding of the element that contains it. Usually modifier elements provide negation or qualification. In order to make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer is allowed to define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.</t>
-  </si>
-  <si>
-    <t>There can be no stigma associated with the use of extensions by any application, project, or standard - regardless of the institution or jurisdiction that uses or defines the extensions.  The use of extensions is what allows the FHIR specification to retain a core level of simplicity for everyone.</t>
   </si>
   <si>
     <t>DomainResource.modifierExtension</t>
@@ -445,19 +438,19 @@
     <t>Slot.status</t>
   </si>
   <si>
-    <t>busy | free | busy-unavailable | busy-tentative | entered-in-error</t>
-  </si>
-  <si>
-    <t>busy | free | busy-unavailable | busy-tentative | entered-in-error.</t>
+    <t>busy | free | busy-unavailable | entered-in-error</t>
+  </si>
+  <si>
+    <t>busy | free | busy-unavailable | entered-in-error.</t>
   </si>
   <si>
     <t>required</t>
   </si>
   <si>
-    <t>The free/busy status of the slot.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/slotstatus</t>
+    <t>The free/busy status of the slot. This value set is a subset of the the FHIR core Slot value set excluding the 'busy-tentative' concept.</t>
+  </si>
+  <si>
+    <t>http://fhir.org/guides/argonaut-scheduling/ValueSet/argo-slot-status</t>
   </si>
   <si>
     <t>FREEBUSY;FBTYPE=(freeBusyType):19980314T233000Z/19980315T003000Z If the freeBusyType is BUSY, then this value can be excluded</t>
@@ -701,8 +694,8 @@
     <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="75.1953125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="62.44921875" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="126.36328125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="69.140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
@@ -1592,7 +1585,7 @@
       </c>
       <c r="B9" s="2"/>
       <c r="C9" t="s" s="2">
-        <v>39</v>
+        <v>94</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" t="s" s="2">
@@ -1611,15 +1604,17 @@
         <v>39</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K9" t="s" s="2">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="L9" t="s" s="2">
-        <v>96</v>
-      </c>
-      <c r="M9" s="2"/>
+        <v>97</v>
+      </c>
+      <c r="M9" t="s" s="2">
+        <v>98</v>
+      </c>
       <c r="N9" s="2"/>
       <c r="O9" t="s" s="2">
         <v>39</v>
@@ -1656,14 +1651,16 @@
         <v>39</v>
       </c>
       <c r="AA9" t="s" s="2">
-        <v>97</v>
-      </c>
-      <c r="AB9" s="2"/>
+        <v>39</v>
+      </c>
+      <c r="AB9" t="s" s="2">
+        <v>39</v>
+      </c>
       <c r="AC9" t="s" s="2">
         <v>39</v>
       </c>
       <c r="AD9" t="s" s="2">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="AE9" t="s" s="2">
         <v>99</v>
@@ -1681,7 +1678,7 @@
         <v>39</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>39</v>
+        <v>92</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>39</v>
@@ -1696,7 +1693,7 @@
       </c>
       <c r="B10" s="2"/>
       <c r="C10" t="s" s="2">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" t="s" s="2">
@@ -1715,16 +1712,16 @@
         <v>39</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s" s="2">
         <v>102</v>
       </c>
-      <c r="L10" t="s" s="2">
-        <v>103</v>
-      </c>
       <c r="M10" t="s" s="2">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" t="s" s="2">
@@ -1774,7 +1771,7 @@
         <v>39</v>
       </c>
       <c r="AE10" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="AF10" t="s" s="2">
         <v>40</v>
@@ -1800,7 +1797,7 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B11" s="2"/>
       <c r="C11" t="s" s="2">
@@ -1823,13 +1820,13 @@
         <v>50</v>
       </c>
       <c r="J11" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="K11" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="L11" t="s" s="2">
         <v>107</v>
-      </c>
-      <c r="K11" t="s" s="2">
-        <v>108</v>
-      </c>
-      <c r="L11" t="s" s="2">
-        <v>109</v>
       </c>
       <c r="M11" s="2"/>
       <c r="N11" s="2"/>
@@ -1880,7 +1877,7 @@
         <v>39</v>
       </c>
       <c r="AE11" t="s" s="2">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="AF11" t="s" s="2">
         <v>40</v>
@@ -1901,12 +1898,12 @@
         <v>39</v>
       </c>
       <c r="AL11" t="s" s="2">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
@@ -1929,13 +1926,13 @@
         <v>50</v>
       </c>
       <c r="J12" t="s" s="2">
+        <v>110</v>
+      </c>
+      <c r="K12" t="s" s="2">
+        <v>111</v>
+      </c>
+      <c r="L12" t="s" s="2">
         <v>112</v>
-      </c>
-      <c r="K12" t="s" s="2">
-        <v>113</v>
-      </c>
-      <c r="L12" t="s" s="2">
-        <v>114</v>
       </c>
       <c r="M12" s="2"/>
       <c r="N12" s="2"/>
@@ -1962,11 +1959,11 @@
         <v>39</v>
       </c>
       <c r="W12" t="s" s="2">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="X12" s="2"/>
       <c r="Y12" t="s" s="2">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="Z12" t="s" s="2">
         <v>39</v>
@@ -1984,7 +1981,7 @@
         <v>39</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>40</v>
@@ -2005,12 +2002,12 @@
         <v>39</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
@@ -2033,13 +2030,13 @@
         <v>50</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M13" s="2"/>
       <c r="N13" s="2"/>
@@ -2070,7 +2067,7 @@
       </c>
       <c r="X13" s="2"/>
       <c r="Y13" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="Z13" t="s" s="2">
         <v>39</v>
@@ -2088,7 +2085,7 @@
         <v>39</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>40</v>
@@ -2109,12 +2106,12 @@
         <v>39</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
@@ -2137,13 +2134,13 @@
         <v>50</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="M14" s="2"/>
       <c r="N14" s="2"/>
@@ -2170,14 +2167,14 @@
         <v>39</v>
       </c>
       <c r="W14" t="s" s="2">
+        <v>123</v>
+      </c>
+      <c r="X14" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="Y14" t="s" s="2">
         <v>125</v>
       </c>
-      <c r="X14" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="Y14" t="s" s="2">
-        <v>127</v>
-      </c>
       <c r="Z14" t="s" s="2">
         <v>39</v>
       </c>
@@ -2194,7 +2191,7 @@
         <v>39</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>40</v>
@@ -2215,12 +2212,12 @@
         <v>39</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -2243,13 +2240,13 @@
         <v>50</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="M15" s="2"/>
       <c r="N15" s="2"/>
@@ -2276,11 +2273,11 @@
         <v>39</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>39</v>
@@ -2298,7 +2295,7 @@
         <v>39</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>40</v>
@@ -2319,12 +2316,12 @@
         <v>39</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -2347,13 +2344,13 @@
         <v>50</v>
       </c>
       <c r="J16" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="K16" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="L16" t="s" s="2">
         <v>133</v>
-      </c>
-      <c r="K16" t="s" s="2">
-        <v>134</v>
-      </c>
-      <c r="L16" t="s" s="2">
-        <v>135</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2404,7 +2401,7 @@
         <v>39</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>49</v>
@@ -2430,7 +2427,7 @@
     </row>
     <row r="17">
       <c r="A17" t="s" s="2">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -2456,10 +2453,10 @@
         <v>68</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M17" s="2"/>
       <c r="N17" s="2"/>
@@ -2486,49 +2483,49 @@
         <v>39</v>
       </c>
       <c r="W17" t="s" s="2">
+        <v>137</v>
+      </c>
+      <c r="X17" t="s" s="2">
+        <v>138</v>
+      </c>
+      <c r="Y17" t="s" s="2">
         <v>139</v>
       </c>
-      <c r="X17" t="s" s="2">
+      <c r="Z17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AA17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AB17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AC17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AD17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AE17" t="s" s="2">
+        <v>134</v>
+      </c>
+      <c r="AF17" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AG17" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AI17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AJ17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="AK17" t="s" s="2">
         <v>140</v>
-      </c>
-      <c r="Y17" t="s" s="2">
-        <v>141</v>
-      </c>
-      <c r="Z17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AA17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AB17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AC17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AD17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AE17" t="s" s="2">
-        <v>136</v>
-      </c>
-      <c r="AF17" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AG17" t="s" s="2">
-        <v>49</v>
-      </c>
-      <c r="AH17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AI17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AJ17" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="AK17" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="AL17" t="s" s="2">
         <v>39</v>
@@ -2536,7 +2533,7 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -2559,13 +2556,13 @@
         <v>50</v>
       </c>
       <c r="J18" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="K18" t="s" s="2">
+        <v>143</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>144</v>
-      </c>
-      <c r="K18" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="L18" t="s" s="2">
-        <v>146</v>
       </c>
       <c r="M18" s="2"/>
       <c r="N18" s="2"/>
@@ -2616,7 +2613,7 @@
         <v>39</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>49</v>
@@ -2634,15 +2631,15 @@
         <v>39</v>
       </c>
       <c r="AK18" t="s" s="2">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -2665,13 +2662,13 @@
         <v>50</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
@@ -2722,7 +2719,7 @@
         <v>39</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>49</v>
@@ -2740,15 +2737,15 @@
         <v>39</v>
       </c>
       <c r="AK19" t="s" s="2">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -2771,13 +2768,13 @@
         <v>39</v>
       </c>
       <c r="J20" t="s" s="2">
+        <v>152</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>154</v>
-      </c>
-      <c r="K20" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="L20" t="s" s="2">
-        <v>156</v>
       </c>
       <c r="M20" s="2"/>
       <c r="N20" s="2"/>
@@ -2785,7 +2782,7 @@
         <v>39</v>
       </c>
       <c r="P20" t="s" s="2">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="Q20" t="s" s="2">
         <v>39</v>
@@ -2830,7 +2827,7 @@
         <v>39</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="AF20" t="s" s="2">
         <v>40</v>
@@ -2856,7 +2853,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
@@ -2879,13 +2876,13 @@
         <v>39</v>
       </c>
       <c r="J21" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="K21" t="s" s="2">
+        <v>158</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="K21" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="L21" t="s" s="2">
-        <v>161</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -2936,7 +2933,7 @@
         <v>39</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>40</v>
